--- a/data/Отчеты.xlsx
+++ b/data/Отчеты.xlsx
@@ -1,34 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gayda\PycharmProjects\VKR\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B2783D-75E1-4D9A-B55E-D2E4D4723DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2136" yWindow="900" windowWidth="20904" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="42">
+  <si>
+    <t>Сообщение</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Контрагент</t>
+  </si>
+  <si>
+    <t>Дистрибьютор</t>
+  </si>
+  <si>
+    <t>ДистрибьютерРегион</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
+  <si>
+    <t>Федеральный округ</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t>Vet Category DHP</t>
+  </si>
+  <si>
+    <t>Vet Category Bravecto</t>
+  </si>
+  <si>
+    <t>Pet Category Value</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Сеть</t>
+  </si>
+  <si>
+    <t>Clients_Type</t>
+  </si>
+  <si>
+    <t>СББЖ</t>
+  </si>
+  <si>
+    <t>KAM</t>
+  </si>
+  <si>
+    <t>IFP</t>
+  </si>
+  <si>
+    <t>UIN</t>
+  </si>
+  <si>
+    <t>GPF</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Sum-количествоОборот</t>
+  </si>
+  <si>
+    <t>Sum-Дозы</t>
+  </si>
+  <si>
+    <t>Sum-СтоимостьБезНДСОборот1</t>
+  </si>
+  <si>
+    <t>Soem text</t>
+  </si>
+  <si>
+    <t>2016-12</t>
+  </si>
+  <si>
+    <t>ВетТрейд</t>
+  </si>
+  <si>
+    <t>Мурманская станция</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>РФ</t>
+  </si>
+  <si>
+    <t>Северо-Запад</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>Мурманск, Грибалевой 8</t>
+  </si>
+  <si>
+    <t>Прочие</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>23уу</t>
+  </si>
+  <si>
+    <t>Vasotop P 0.625mg 3x28tab</t>
+  </si>
+  <si>
+    <t>Vasotop</t>
+  </si>
+  <si>
+    <t>Pharma</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>Отсутвтвует столбец ДистрибьютерРегион</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +182,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +484,712 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>2016</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>3423423423</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2">
+        <v>153699</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>9898798444</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3">
+        <v>153699</v>
+      </c>
+      <c r="U3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>2016</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <v>3423423423</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4">
+        <v>153699</v>
+      </c>
+      <c r="U4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>9898798444</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5">
+        <v>153699</v>
+      </c>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>2016</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>3423423423</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>36</v>
+      </c>
+      <c r="S6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6">
+        <v>153699</v>
+      </c>
+      <c r="U6" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7">
+        <v>9898798444</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7">
+        <v>153699</v>
+      </c>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>3423423423</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8">
+        <v>153699</v>
+      </c>
+      <c r="U8" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9">
+        <v>9898798444</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9">
+        <v>153699</v>
+      </c>
+      <c r="U9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/Отчеты.xlsx
+++ b/data/Отчеты.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -1891,6 +1891,2559 @@
         <v>375</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C19" t="n">
+        <v>12</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C20" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C21" t="n">
+        <v>12</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C22" t="n">
+        <v>12</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C23" t="n">
+        <v>12</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
+        <v>1</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C25" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C26" t="n">
+        <v>12</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W26" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C27" t="n">
+        <v>12</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W28" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C29" t="n">
+        <v>12</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W30" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C32" t="n">
+        <v>12</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W32" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W33" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W35" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Отчеты.xlsx
+++ b/data/Отчеты.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -4444,6 +4444,783 @@
         <v>375</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C38" t="n">
+        <v>12</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W38" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C39" t="n">
+        <v>12</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W39" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W40" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C41" t="n">
+        <v>12</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W42" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Некорректное значение ИНН</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C43" t="n">
+        <v>12</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2016-12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Мурманская станция</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Мурманская обл</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>РФ</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Северо-Запад</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>С</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Мурманск, Грибалевой 8</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Прочие</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Pet</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>СББЖ</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Pugach</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Vasotop P 0.625mg 3x28tab</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>153699</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Vasotop</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Pharma</t>
+        </is>
+      </c>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
